--- a/scrapy安装说明.xlsx
+++ b/scrapy安装说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C6055-B8B2-4A72-B957-92D1FD536590}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0C9FC6-4527-4654-AE3D-025B440825F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>序列</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>https://www.cnblogs.com/patchouli/p/6511251.html</t>
+  </si>
+  <si>
+    <t>设置文件保存路径</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>文件保存路径</t>
+  </si>
+  <si>
+    <t>在\project_insurance_scrap\pipelines.py中修改dir路径</t>
   </si>
 </sst>
 </file>
@@ -610,10 +622,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -847,7 +859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>47</v>
       </c>
@@ -861,7 +873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -878,7 +890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="1:6">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -895,7 +907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="1:6">
       <c r="B20" t="s">
         <v>68</v>
       </c>
@@ -912,7 +924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="1:6">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -926,8 +938,22 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="1:6">
       <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/scrapy安装说明.xlsx
+++ b/scrapy安装说明.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0C9FC6-4527-4654-AE3D-025B440825F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5A63C7-F347-42B7-A4C6-4DD4062A25E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="前置安装" sheetId="2" r:id="rId1"/>
+    <sheet name="前置安装与设置" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -93,9 +93,6 @@
     <t>splash库：</t>
   </si>
   <si>
-    <t>win 10 专业版或 mac 开启虚拟机</t>
-  </si>
-  <si>
     <t>https://www.tutorialspoint.com/windows10/windows10_virtualization.htm</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>系统语言必须为中文: language&amp;area 设置，中文系统请无视</t>
-  </si>
-  <si>
-    <t>bios开启虚拟机</t>
   </si>
   <si>
     <t>https://blog.csdn.net/xgocn/article/details/80457833</t>
@@ -290,6 +284,12 @@
   </si>
   <si>
     <t>在\project_insurance_scrap\pipelines.py中修改dir路径</t>
+  </si>
+  <si>
+    <t>bios开启虚拟机(mac无视)</t>
+  </si>
+  <si>
+    <t>win 10 专业版H-hyper(mac无视)</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -640,7 +640,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -662,7 +662,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -679,24 +679,24 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -725,54 +725,54 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -786,38 +786,38 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
         <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -844,98 +844,98 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -943,16 +943,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -965,8 +965,9 @@
     <hyperlink ref="E4" r:id="rId6" location="section=windows" xr:uid="{CFF1650F-AFC9-498A-B76B-156B335C6B98}"/>
     <hyperlink ref="E21" r:id="rId7" xr:uid="{615DE908-0F49-4603-92FB-ABAAF396A438}"/>
     <hyperlink ref="E11" r:id="rId8" xr:uid="{C729AFCF-F141-4158-976E-A26F1E020317}"/>
+    <hyperlink ref="E19" r:id="rId9" xr:uid="{082CF4BF-B59D-4881-8382-1EB14CC24FBF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>